--- a/ForensicsReporter/ForensicCasesExample.xlsx
+++ b/ForensicsReporter/ForensicCasesExample.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Forensics" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Checklist" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Cases" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Checklist" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -795,80 +795,84 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -944,8 +948,114 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -956,12 +1066,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.71"/>
@@ -982,7 +1092,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.57"/>
@@ -1005,11 +1115,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="41.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="42.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="45" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="18.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="16.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="32.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="53.17"/>
@@ -1017,15 +1127,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="8.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="12.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="15.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="34.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="8.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="10.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="68" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="68" style="1" width="8.61"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,7 +1520,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="11" customFormat="true" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>68</v>
       </c>
@@ -1562,7 +1672,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="11" customFormat="true" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>68</v>
       </c>
@@ -1750,7 +1860,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="11" customFormat="true" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>68</v>
       </c>
@@ -1901,7 +2011,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1911,7 +2021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1927,351 +2037,351 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="2.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="3.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="17" style="0" width="2.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="15" width="2.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="15" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="15" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="15" width="3.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="17" style="15" width="2.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N3" s="0" t="s">
+      <c r="N3" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="100" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17" t="s">
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="R7" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="T7" s="17" t="s">
+      <c r="T7" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="U7" s="17" t="s">
+      <c r="U7" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="V7" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="W7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="Y7" s="17" t="s">
+      <c r="Y7" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Z7" s="17" t="s">
+      <c r="Z7" s="18" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="X8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15" t="s">
+      <c r="H9" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15" t="s">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="T9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="U9" s="15" t="s">
+      <c r="T9" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="U9" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="X10" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15" t="s">
+      <c r="H11" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="X11" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
